--- a/data/income_statement/2digits/size/14_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/14_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>14-Manufacture of wearing apparel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>14-Manufacture of wearing apparel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,893 +841,1008 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>10253467.55284</v>
+        <v>9968852.42726</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>12742747.89349</v>
+        <v>12412446.46887</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>17039673.67947</v>
+        <v>16698204.44662</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>18804777.49819</v>
+        <v>18471399.50133</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>19428487.6529</v>
+        <v>19277122.95638</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>24303709.16012</v>
+        <v>24312790.5318</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>29280212.35727</v>
+        <v>29655763.79507</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>33211225.29707</v>
+        <v>32138366.26506</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>42986800.89277001</v>
+        <v>41352550.44182</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>49823442.55539</v>
+        <v>49425580.10566</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>61673953.5445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>61589163.88925999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>69229718.21799999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5345552.034039999</v>
+        <v>5196381.323600001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6496107.746050001</v>
+        <v>6331050.94212</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9041380.04617</v>
+        <v>8808210.48277</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9926920.64113</v>
+        <v>9761417.086119998</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10286958.82322</v>
+        <v>10150228.74514</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12567349.27547</v>
+        <v>12447561.56461</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16138512.40625</v>
+        <v>15962876.43833</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18569466.65645</v>
+        <v>17716150.07545</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>24089442.29061</v>
+        <v>22909746.14703</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26128329.89689</v>
+        <v>25799468.31112</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>33799528.47153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33803668.64133</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>35741717.097</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4762500.37202</v>
+        <v>4635201.14508</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6070674.068959999</v>
+        <v>5909570.956780001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7712137.43384</v>
+        <v>7613277.81049</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>8636655.557939999</v>
+        <v>8485052.94565</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8913404.68533</v>
+        <v>8909846.65577</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11462583.91201</v>
+        <v>11597786.39514</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>12776243.46894</v>
+        <v>13325864.49414</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>14146949.84403</v>
+        <v>13947928.02839</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>18193946.51186</v>
+        <v>17771040.9089</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>22869338.24062</v>
+        <v>22809043.12476</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>26787656.69457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26700602.06348</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>32273878.458</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>145415.14678</v>
+        <v>137269.95858</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>175966.07848</v>
+        <v>171824.56997</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>286156.19946</v>
+        <v>276716.15336</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>241201.29912</v>
+        <v>224929.46956</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>228124.14435</v>
+        <v>217047.55547</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>273775.97264</v>
+        <v>267442.57205</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>365456.48208</v>
+        <v>367022.8626000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>494808.79659</v>
+        <v>474288.16122</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>703412.0903</v>
+        <v>671763.38589</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>825774.41788</v>
+        <v>817068.6697800001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1086768.3784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1084893.18445</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1214122.663</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>267213.06992</v>
+        <v>262787.4403</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>307024.34656</v>
+        <v>300028.30551</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>424028.87126</v>
+        <v>416209.6665699999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>442931.89601</v>
+        <v>436062.7001300001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>452339.17169</v>
+        <v>451138.16328</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>688161.0201500001</v>
+        <v>694786.36091</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>833063.932</v>
+        <v>828060.7197100001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1256255.0834</v>
+        <v>1199614.89162</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1641638.95995</v>
+        <v>1578418.6467</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2169123.59634</v>
+        <v>2163096.36237</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2429192.83054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2446737.17285</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2413013.731</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>113830.07801</v>
+        <v>111776.55351</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>128232.12523</v>
+        <v>122832.87871</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>204634.93099</v>
+        <v>197451.97164</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>207157.71083</v>
+        <v>205091.94022</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>207444.43379</v>
+        <v>209987.29349</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>295123.52151</v>
+        <v>295966.24203</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>394034.02213</v>
+        <v>387384.22516</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>771035.1661899999</v>
+        <v>735446.7806800001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1079712.52638</v>
+        <v>1025829.22474</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1188212.33196</v>
+        <v>1185981.46578</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1369155.47553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1386624.09265</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1200699.002</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>83026.79639</v>
+        <v>81322.48986</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>108875.05539</v>
+        <v>108068.53329</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>156501.09013</v>
+        <v>156352.96257</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>161842.84463</v>
+        <v>158539.51302</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>182656.24641</v>
+        <v>178268.51127</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>304356.14033</v>
+        <v>310265.5429</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>306723.49327</v>
+        <v>304655.44399</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>340373.75381</v>
+        <v>319976.74585</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>356370.59977</v>
+        <v>348174.57808</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>446199.62305</v>
+        <v>446164.56001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>518397.41266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>518553.6461799999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>727463.924</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>70356.19551999999</v>
+        <v>69688.39693</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>69917.16593999999</v>
+        <v>69126.89350999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>62892.85014</v>
+        <v>62404.73236</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>73931.34054999999</v>
+        <v>72431.24688999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>62238.49148999999</v>
+        <v>62882.35851999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>88681.35831</v>
+        <v>88554.57598000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>132306.4166</v>
+        <v>136021.05056</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>144846.1634</v>
+        <v>144191.36509</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>205555.8338</v>
+        <v>204414.84388</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>534711.64133</v>
+        <v>530950.33658</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>541639.94235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>541559.4340199999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>484850.805</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>9986254.48292</v>
+        <v>9706064.986959999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>12435723.54693</v>
+        <v>12112418.16336</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>16615644.80821</v>
+        <v>16281994.78005</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>18361845.60218</v>
+        <v>18035336.8012</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>18976148.48121</v>
+        <v>18825984.7931</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>23615548.13997</v>
+        <v>23618004.17089</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>28447148.42526999</v>
+        <v>28827703.07536</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>31954970.21367</v>
+        <v>30938751.37344</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>41345161.93282</v>
+        <v>39774131.79511999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>47654318.95904999</v>
+        <v>47262483.74329</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>59244760.71396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>59142426.71641</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>66816704.487</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8472382.892679999</v>
+        <v>8243940.93531</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>10793932.34924</v>
+        <v>10510990.33903</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>13823595.76863</v>
+        <v>13549551.92255</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>15821948.07505</v>
+        <v>15487810.48105</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>15834898.20325</v>
+        <v>15715551.95449</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20095605.36903</v>
+        <v>20055429.88085</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>24208562.85835</v>
+        <v>24455285.54034</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>27150581.53678</v>
+        <v>26325410.36488</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>34664882.03774001</v>
+        <v>33433155.27084</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>38973690.6527</v>
+        <v>38678788.68104</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>50473745.26798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>50373816.33518</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>55060439.458</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>7214172.31934</v>
+        <v>7022654.62611</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>9103229.015969999</v>
+        <v>8881743.043200001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11602877.42401</v>
+        <v>11374757.11538</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>13283782.33693</v>
+        <v>12996579.14832</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>13502145.83829</v>
+        <v>13334911.13117</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>17163746.96886</v>
+        <v>17064006.72733</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>20565625.53639</v>
+        <v>20783604.89659</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>23360466.04275</v>
+        <v>22773838.28696</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>29209112.98345</v>
+        <v>28246121.05323</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>32480396.87643</v>
+        <v>32346668.45338</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>42421147.20489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>42401409.95832</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>45604882.319</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>950119.21126</v>
+        <v>920915.58611</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1319780.28456</v>
+        <v>1269617.5461</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1715375.61359</v>
+        <v>1675456.59465</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1998499.38446</v>
+        <v>1977405.09907</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1840540.57529</v>
+        <v>1849580.31193</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2346526.09263</v>
+        <v>2363288.2788</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2997148.80697</v>
+        <v>2994367.50733</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3060946.50103</v>
+        <v>2855479.81191</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4084762.02908</v>
+        <v>3836858.71818</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4976308.70497</v>
+        <v>4825315.216890001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6065438.635100001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5976611.319240001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7157796.054</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>232871.96914</v>
+        <v>229093.34977</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>254436.80596</v>
+        <v>245467.69076</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>347565.77914</v>
+        <v>342415.23322</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>408870.6753</v>
+        <v>391270.90711</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>395681.24774</v>
+        <v>394151.08404</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>459223.63747</v>
+        <v>457940.50855</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>499414.20433</v>
+        <v>469208.29462</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>507884.53948</v>
+        <v>475384.06271</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>951858.38666</v>
+        <v>933572.02087</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1010134.14403</v>
+        <v>1009683.62289</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1430692.81042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1439653.69169</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1743159.995</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>75219.39293999999</v>
+        <v>71277.37332000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>116486.24275</v>
+        <v>114162.05897</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>157776.95189</v>
+        <v>156922.9793</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>130795.67836</v>
+        <v>122555.32655</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>96530.54193000001</v>
+        <v>136909.42735</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>126108.67007</v>
+        <v>170194.36617</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>146374.31066</v>
+        <v>208104.8418</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>221284.45352</v>
+        <v>220708.2033</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>419148.63855</v>
+        <v>416603.47856</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>506850.92727</v>
+        <v>497121.38788</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>556466.6175699999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>556141.36593</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>554601.09</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1513871.59024</v>
+        <v>1462124.05165</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1641791.19769</v>
+        <v>1601427.82433</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2792049.039580001</v>
+        <v>2732442.8575</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2539897.52713</v>
+        <v>2547526.32015</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3141250.27796</v>
+        <v>3110432.83861</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3519942.77094</v>
+        <v>3562574.29004</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4238585.566919999</v>
+        <v>4372417.53502</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4804388.676890001</v>
+        <v>4613341.008559999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6680279.89508</v>
+        <v>6340976.52428</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8680628.30635</v>
+        <v>8583695.062249999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8771015.445979999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8768610.38123</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>11756265.029</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1041527.55084</v>
+        <v>994295.8693500001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1249908.68368</v>
+        <v>1199738.53658</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1603068.7624</v>
+        <v>1564226.47439</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1875085.28036</v>
+        <v>1857089.31962</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1917539.13412</v>
+        <v>1897017.72241</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2297403.55166</v>
+        <v>2312872.24783</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2637228.62159</v>
+        <v>2706807.52356</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3135827.7991</v>
+        <v>2994429.36261</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3833124.25894</v>
+        <v>3590830.1016</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4254860.28032</v>
+        <v>4190451.18768</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5184077.670280001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5216671.31305</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5312573.55</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>8666.930679999999</v>
+        <v>8659.78023</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>14121.09026</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>17835.38544</v>
+        <v>17439.64099</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>22570.59567</v>
+        <v>21803.50699</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>18938.79997</v>
+        <v>19118.87946</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>26124.02341</v>
+        <v>26172.14772</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>21153.52852</v>
+        <v>25800.52339</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>30017.84364</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>40678.93788</v>
+        <v>39917.73457</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>60080.55791</v>
+        <v>59923.39208</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>87542.20793</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>111736.906</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>546513.9879500001</v>
+        <v>526414.3541999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>682265.2730899999</v>
+        <v>665726.8345799999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>909410.92469</v>
+        <v>904966.9381200002</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1063714.39105</v>
+        <v>1081349.57334</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1089334.76285</v>
+        <v>1100118.89701</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1294304.99409</v>
+        <v>1276121.29814</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1392399.19316</v>
+        <v>1466332.26585</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1666805.63572</v>
+        <v>1604635.60835</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2075405.86187</v>
+        <v>1960152.34623</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2350605.64555</v>
+        <v>2309211.465640001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2717792.78268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2764485.47474</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2650600.925</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>486346.63221</v>
+        <v>459221.73492</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>553522.3203299999</v>
+        <v>519890.61174</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>675822.4522700001</v>
+        <v>641819.8952799999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>788800.29364</v>
+        <v>753936.2392899999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>809265.5713</v>
+        <v>777779.94594</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>976974.5341599998</v>
+        <v>1010578.80197</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1223675.89991</v>
+        <v>1214674.73432</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1439004.31974</v>
+        <v>1359775.91062</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1717039.45919</v>
+        <v>1590760.0208</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1844174.07686</v>
+        <v>1821316.32996</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2378742.67967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2364643.63038</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2550235.719</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>472344.0394</v>
+        <v>467828.1823</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>391882.51401</v>
+        <v>401689.28775</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1188980.27718</v>
+        <v>1168216.38311</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>664812.24677</v>
+        <v>690437.00053</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1223711.14384</v>
+        <v>1213415.1162</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1222539.21928</v>
+        <v>1249702.04221</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1601356.94533</v>
+        <v>1665610.01146</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1668560.87779</v>
+        <v>1618911.64595</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2847155.636140001</v>
+        <v>2750146.42268</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4425768.02603</v>
+        <v>4393243.87457</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3586937.7757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3551939.06818</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6443691.479</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>563975.6868199999</v>
+        <v>488256.32811</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>697332.4404</v>
+        <v>613216.8038299999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>887115.4789699999</v>
+        <v>774601.5300800001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>808536.3019600001</v>
+        <v>771075.5527100001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>919358.6450700001</v>
+        <v>861686.07014</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1223214.80633</v>
+        <v>1181005.91992</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2168802.01025</v>
+        <v>2072252.33236</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2017202.48651</v>
+        <v>1827321.27603</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2832290.64903</v>
+        <v>2663014.02823</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8357574.30788</v>
+        <v>8149852.9741</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5471773.244899999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5405970.39413</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10667000.283</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>7034.70167</v>
+        <v>1293.11046</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4430.25789</v>
+        <v>2107.51996</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>5254.88934</v>
+        <v>3587.9764</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>5473.752570000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>14900.63431</v>
+        <v>14253.63318</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6904.13799</v>
+        <v>5592.1393</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>22525.95078</v>
+        <v>21611.03044</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15336.71946</v>
+        <v>14620.30029</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>16458.76643</v>
+        <v>16383.76643</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>21438.43219</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>40198.10759</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>40046.58358999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>76775.015</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>975.6170400000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1227.82734</v>
+        <v>427.57106</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>834.6102100000001</v>
+        <v>804.3054100000001</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>3641.61401</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>19889.52932</v>
+        <v>19879.42772</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>9211.106760000001</v>
+        <v>9185.85276</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>7651.405860000001</v>
+        <v>16069.12788</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>14670.04798</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>12884.39628</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>14603.918</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>48820.9942</v>
+        <v>41215.04432</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>39417.85739</v>
+        <v>35270.47229999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>48416.24886</v>
+        <v>42649.03845</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>59303.52427999999</v>
+        <v>51736.52381</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>53630.45801</v>
+        <v>48676.97184000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>65099.02497</v>
+        <v>59467.04899</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>84449.06849000001</v>
+        <v>78718.12917</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>101643.81953</v>
+        <v>86002.7746</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>147038.42304</v>
+        <v>131866.62227</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>178961.34558</v>
+        <v>167243.41768</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>262887.18253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>261101.79029</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>275651.834</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>851.9396700000001</v>
@@ -1892,25 +1918,25 @@
         <v>792.02642</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>16983.48237</v>
+        <v>16938.99085</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1367.23604</v>
+        <v>1095.29351</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>615.15486</v>
+        <v>487.8042</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1512.55322</v>
+        <v>1512.52142</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1003.57712</v>
+        <v>1173.81898</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2187.22611</v>
+        <v>2415.90569</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>7627.81006</v>
+        <v>2387.81059</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>1799.58025</v>
@@ -1918,38 +1944,43 @@
       <c r="M29" s="48" t="n">
         <v>5760.589980000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>20609.637</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6462.05899</v>
+        <v>6167.74536</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>8109.74158</v>
+        <v>6506.37425</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>44647.84952</v>
+        <v>4496.81752</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>7082.9525</v>
+        <v>7081.1235</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3744.30614</v>
+        <v>3656.58043</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>4183.63544</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4713.03067</v>
+        <v>4755.42503</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5347.364850000001</v>
+        <v>5664.33115</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5422.71717</v>
+        <v>5007.31565</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>19912.07716</v>
@@ -1957,38 +1988,43 @@
       <c r="M30" s="48" t="n">
         <v>4449.99685</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>10823.374</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>21733.71631</v>
+        <v>672.1330300000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>10266.62833</v>
+        <v>694.02647</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>10681.70408</v>
+        <v>8653.95225</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5941.395290000001</v>
+        <v>5708.65565</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1589.73718</v>
+        <v>1593.67365</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9994.68058</v>
+        <v>9993.149619999998</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1856.3867</v>
+        <v>1790.95265</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6716.840529999999</v>
+        <v>6359.32573</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>15098.78987</v>
+        <v>14768.54879</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>4759.26733</v>
@@ -1996,77 +2032,87 @@
       <c r="M31" s="48" t="n">
         <v>8866.27226</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>74275.39</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>387178.43449</v>
+        <v>352880.76311</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>488681.88277</v>
+        <v>439968.54024</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>550579.8158199999</v>
+        <v>506383.83906</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>503928.3263</v>
+        <v>485360.79048</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>606134.2629600001</v>
+        <v>562057.7664900001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>848151.1132299999</v>
+        <v>826736.2780699999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1691514.50707</v>
+        <v>1637355.04775</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1518316.54523</v>
+        <v>1371560.21893</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2247293.52985</v>
+        <v>2130714.72601</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7522211.718450001</v>
+        <v>7337871.36093</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4469881.97629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4418697.09647</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>9560439.581</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>537.4180700000001</v>
+        <v>499.10905</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>24860.37912</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>46445.69739</v>
+        <v>46422.58476</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>42171.47091</v>
+        <v>42159.57104</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>46184.13908</v>
+        <v>46067.15294000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>74673.95142</v>
+        <v>73885.88178</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>79592.99481</v>
+        <v>78688.50171000001</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>81195.98877</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>74329.91301</v>
+        <v>74188.38715</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>150963.13179</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>207560.84935</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>82798.66899999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2111,193 +2162,218 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>698.025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>5096.568</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>90380.80637999999</v>
+        <v>83700.86606999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>119404.30589</v>
+        <v>102448.36034</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>162845.68317</v>
+        <v>144238.52717</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>179626.03006</v>
+        <v>168818.22814</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>172667.80785</v>
+        <v>165010.44433</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>203484.60272</v>
+        <v>190449.41254</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>275484.88875</v>
+        <v>232080.09875</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>271787.93405</v>
+        <v>244832.38289</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>316313.11931</v>
+        <v>284989.27105</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>455744.31909</v>
+        <v>444081.27073</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>458585.84877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>446602.81906</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>545926.297</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>433725.54119</v>
+        <v>407154.0176799999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>530064.8279</v>
+        <v>477874.74526</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>953613.24574</v>
+        <v>919289.6680600001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>539394.8984399999</v>
+        <v>517678.02859</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1168451.33979</v>
+        <v>1100618.41838</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1191135.01205</v>
+        <v>1143037.82749</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2114126.02009</v>
+        <v>2047151.53627</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2076284.4574</v>
+        <v>1884173.05368</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3013447.05638</v>
+        <v>2854675.35796</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8913773.742659999</v>
+        <v>8722759.97611</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5069591.782490001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4976031.006650001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9746413.181</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>14810.42447</v>
+        <v>14613.41493</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>15352.80904</v>
+        <v>13315.00458</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>18521.41011</v>
+        <v>18427.83217</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>28433.94634</v>
+        <v>28092.53047</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>20381.79887</v>
+        <v>20030.09184</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>20890.94259</v>
+        <v>22649.01162</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>28589.57826</v>
+        <v>31462.42037</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>49026.53509</v>
+        <v>47156.93682</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>66751.25376000001</v>
+        <v>63354.21915</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>74625.46786</v>
+        <v>73447.80308</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>82446.96881000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>102174.102</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>36358.39429</v>
+        <v>36343.07159</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>18132.6272</v>
+        <v>17983.10769</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>19387.84703</v>
+        <v>19072.77653</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>20706.77775</v>
+        <v>20557.13782</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>21825.50026</v>
+        <v>19487.64844</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>63839.52868</v>
+        <v>54831.96477</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>55680.47817</v>
+        <v>52738.18806</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>53275.84136999999</v>
+        <v>53610.13394000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>49775.29849</v>
+        <v>48244.48768999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>83471.43515</v>
+        <v>83453.21547</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>45467.23172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>45644.33955</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>295133.046</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2682.01459</v>
+        <v>264.26</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>309.26702</v>
+        <v>47.09527</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3109.03631</v>
+        <v>2683.87307</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>17973.90992</v>
+        <v>17971.19242</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>9211.437810000001</v>
+        <v>9195.205540000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>7840.20969</v>
+        <v>7848.39821</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>8087.88851</v>
+        <v>8090.27706</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>739.8317000000001</v>
+        <v>639.92844</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>777.17247</v>
@@ -2308,77 +2384,87 @@
       <c r="M39" s="48" t="n">
         <v>6116.97963</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4194.345</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>338366.6192899999</v>
+        <v>315137.10723</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>422048.93281</v>
+        <v>374537.47238</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>787870.50715</v>
+        <v>756392.8036100001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>362240.58839</v>
+        <v>341635.55139</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>978760.60763</v>
+        <v>914932.77164</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>930481.05741</v>
+        <v>902319.5698299999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1829622.86666</v>
+        <v>1766819.24613</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1779835.57813</v>
+        <v>1604776.00068</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2702050.50342</v>
+        <v>2549378.54085</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8279930.3439</v>
+        <v>8091596.73571</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4601159.47874</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4508375.9395</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>9083662.438999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>8107.54753</v>
+        <v>8064.6753</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>25858.97837</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>46209.48602999999</v>
+        <v>46176.05986</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>41300.75179</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>53705.07742</v>
+        <v>52485.3768</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>76443.32493999999</v>
+        <v>75734.71750999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>78447.08443999999</v>
+        <v>77885.22865</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>75525.45247</v>
+        <v>75508.66234000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>77441.24128999999</v>
+        <v>77320.12123</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>176946.54213</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>187394.94108</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>69794.592</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>33400.54102</v>
+        <v>32731.48863</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>48362.21346</v>
+        <v>46133.08697</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>78514.95911</v>
+        <v>76536.32282</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>68738.92425</v>
+        <v>68120.86470000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>84566.9178</v>
+        <v>84487.32412</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>91639.36699000001</v>
+        <v>79653.58379999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>113698.12405</v>
+        <v>110156.176</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>117881.21864</v>
+        <v>102481.39146</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>116651.58695</v>
+        <v>115600.81657</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>288903.0891</v>
+        <v>287418.8152000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>147006.18251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>146051.83808</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>191454.657</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>259978.85826</v>
+        <v>226826.0916</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>227682.2952</v>
+        <v>208868.64122</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>467228.89319</v>
+        <v>423895.91935</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>327027.52042</v>
+        <v>301331.45406</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>482088.3540700001</v>
+        <v>433653.71776</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>407193.98216</v>
+        <v>381447.48467</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>662919.1689799998</v>
+        <v>625017.4744300001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>779825.3999699999</v>
+        <v>686705.5881800001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>988389.1024300001</v>
+        <v>891751.87212</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1806947.49754</v>
+        <v>1629633.60041</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1446698.18696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1360938.37537</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3641908.598</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>233934.21375</v>
+        <v>204561.22841</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>195809.77388</v>
+        <v>179101.80606</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>371963.86329</v>
+        <v>347443.25396</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>312147.55257</v>
+        <v>287596.72808</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>446147.0643200001</v>
+        <v>399975.40276</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>390516.86525</v>
+        <v>363303.08504</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>624090.22803</v>
+        <v>591036.6683400001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>734364.52729</v>
+        <v>647258.35463</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>930742.0890599999</v>
+        <v>837733.3959999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1631378.47601</v>
+        <v>1469708.91056</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1322255.83384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1240190.05435</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3354419.715</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>26044.64451</v>
+        <v>22264.86319</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>31872.52132</v>
+        <v>29766.83516</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>95265.02990000001</v>
+        <v>76452.66538999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>14879.96785</v>
+        <v>13734.72598</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>35941.28975</v>
+        <v>33678.315</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>16677.11691</v>
+        <v>18144.39963</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>38828.94095</v>
+        <v>33980.80609000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>45460.87268</v>
+        <v>39447.23355</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>57647.01337</v>
+        <v>54018.47612000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>175569.02153</v>
+        <v>159924.68985</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>124442.35312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>120748.32102</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>287488.883</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>342615.32677</v>
+        <v>322104.40113</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>331467.83131</v>
+        <v>328162.7051</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>655253.61722</v>
+        <v>599632.32578</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>606926.1298700001</v>
+        <v>642503.0705899999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>492530.09505</v>
+        <v>540829.0502000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>847425.0314</v>
+        <v>906222.64997</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>993113.76651</v>
+        <v>1065693.33312</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>829653.50693</v>
+        <v>875354.2801200001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1677610.12636</v>
+        <v>1666733.22083</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2062621.09371</v>
+        <v>2190703.27215</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2542421.05115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2620940.08029</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3722369.983</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>87564.79947</v>
+        <v>78066.34587</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>84426.32994</v>
+        <v>77068.32186</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>95603.13946000001</v>
+        <v>89114.50795999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>149871.62066</v>
+        <v>147343.82673</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>176071.38383</v>
+        <v>175401.69455</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>180473.95616</v>
+        <v>161504.28073</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>262446.53548</v>
+        <v>249032.84987</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>361928.90325</v>
+        <v>319688.87489</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>512898.31416</v>
+        <v>466379.7450999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>351717.46477</v>
+        <v>350508.01292</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>526262.56336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>492521.49802</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>458658.735</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1979.85554</v>
+        <v>1238.78408</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1312.02513</v>
+        <v>1282.32512</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2143.78998</v>
+        <v>2124.01069</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>7418.17495</v>
+        <v>7445.46341</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7374.56701</v>
+        <v>7255.702230000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>12224.82667</v>
+        <v>8562.449199999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1994.50006</v>
+        <v>1993.95997</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>10144.00642</v>
+        <v>6975.82151</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1295.91785</v>
+        <v>1215.46529</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>29300.2586</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>43873.79034</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>42640.45015999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5866.401</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>85584.94392999999</v>
+        <v>76827.56179000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>83114.30481</v>
+        <v>75785.99673999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>93459.34948</v>
+        <v>86990.49726999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>142453.44571</v>
+        <v>139898.36332</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>168696.81682</v>
+        <v>168145.99232</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>168249.12949</v>
+        <v>152941.83153</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>260452.03542</v>
+        <v>247038.8899</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>351784.89683</v>
+        <v>312713.05338</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>511602.39631</v>
+        <v>465164.27981</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>322417.20617</v>
+        <v>321207.75432</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>482388.77302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>449881.04786</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>452792.334</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>58690.19593</v>
+        <v>55692.49159000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>61623.64945</v>
+        <v>56784.87828</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>494600.79928</v>
+        <v>424374.8956399999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>224221.66606</v>
+        <v>207722.41053</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>95494.36656000001</v>
+        <v>94601.19729</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>291993.77673</v>
+        <v>286423.01196</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>111321.95588</v>
+        <v>105269.36025</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>455071.45415</v>
+        <v>424164.81718</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>263549.15909</v>
+        <v>199921.85208</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>442716.24637</v>
+        <v>436550.29052</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>232637.36636</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>227517.41497</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>460779.681</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3674.5801</v>
+        <v>3201.99417</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>4849.92321</v>
+        <v>2611.183979999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5949.35654</v>
+        <v>4106.793320000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>6652.9564</v>
+        <v>6095.276720000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>4893.63679</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5474.49609</v>
+        <v>4974.11992</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8758.977720000001</v>
+        <v>6977.357569999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>9841.21041</v>
+        <v>9070.33518</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>13689.26436</v>
+        <v>12349.73477</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>6719.46444</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>15336.56195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>15335.04124</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>57626.825</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6531.95221</v>
+        <v>6521.52084</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5915.393099999999</v>
+        <v>5431.637580000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>22285.82764</v>
+        <v>22274.70699</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>136124.76912</v>
+        <v>136059.26172</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7215.575779999999</v>
+        <v>6462.245369999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>7665.186489999999</v>
+        <v>6827.18166</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5688.77563</v>
+        <v>6692.77161</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7688.16931</v>
+        <v>6783.116410000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7582.29716</v>
+        <v>7369.33554</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6782.96954</v>
+        <v>5189.403530000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>17962.67276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>17140.99685</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>20175.472</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>48483.66362</v>
+        <v>45968.97658</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>50858.33314</v>
+        <v>48742.05672</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>466365.6150999999</v>
+        <v>397993.39533</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>81443.94054000001</v>
+        <v>65567.87209</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>83385.15398999999</v>
+        <v>83245.31512999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>278854.09415</v>
+        <v>274621.71038</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>96874.20253000001</v>
+        <v>91599.23107000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>437542.0744299999</v>
+        <v>408311.36559</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>242277.59757</v>
+        <v>180202.78177</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>429213.81239</v>
+        <v>424641.42255</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>199338.13165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>195041.37688</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>382977.384</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>371489.93031</v>
+        <v>344478.25541</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>354270.5118</v>
+        <v>348446.14868</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>256255.9574</v>
+        <v>264371.9381</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>532576.08447</v>
+        <v>582124.48679</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>573107.1123200001</v>
+        <v>621629.54746</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>735905.2108299999</v>
+        <v>781303.91874</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1144238.34611</v>
+        <v>1209456.82274</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>736510.95603</v>
+        <v>770878.3378300001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1926959.28143</v>
+        <v>1933191.11385</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1971622.31211</v>
+        <v>2104660.99455</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2836046.24815</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2885944.16334</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3720249.037</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>71357.73337</v>
+        <v>69503.35719</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>80332.64754000001</v>
+        <v>78474.1078</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>138515.75381</v>
+        <v>133075.17206</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>138097.20879</v>
+        <v>136479.32845</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>129124.03692</v>
+        <v>126657.07592</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>162328.2355</v>
+        <v>164949.11486</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>227780.25955</v>
+        <v>236184.42681</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>212388.69163</v>
+        <v>201891.9443</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>276925.30875</v>
+        <v>261130.82763</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>393414.2401400001</v>
+        <v>393162.56212</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>397804.1274699999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>399799.67174</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>605357.946</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>300132.19694</v>
+        <v>274974.89822</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>273937.86426</v>
+        <v>269972.04088</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>117740.20359</v>
+        <v>131296.76604</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>394478.87568</v>
+        <v>445645.15834</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>443983.0754</v>
+        <v>494972.47154</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>573576.97533</v>
+        <v>616354.80388</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>916458.08656</v>
+        <v>973272.3959300001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>524122.2644</v>
+        <v>568986.39353</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1650033.97268</v>
+        <v>1672060.28622</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1578208.07197</v>
+        <v>1711498.43243</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2438242.12068</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2486144.4916</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3114891.091</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>310</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>